--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>2</v>
       </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>2</v>
       </c>
+      <c r="Q121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,723 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45680.38541666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>994.7000122070312</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1034.800048828125</v>
+      </c>
+      <c r="D128" t="n">
+        <v>976.4500122070312</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1007</v>
+      </c>
+      <c r="F128" t="n">
+        <v>97565</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>23</v>
+      </c>
+      <c r="J128" t="n">
+        <v>9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>15</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>4</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45680.42708333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1007.799987792969</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D129" t="n">
+        <v>996</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="F129" t="n">
+        <v>34659</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>23</v>
+      </c>
+      <c r="J129" t="n">
+        <v>10</v>
+      </c>
+      <c r="K129" t="n">
+        <v>15</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>4</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45680.46875</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1006.450012207031</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1007.599975585938</v>
+      </c>
+      <c r="D130" t="n">
+        <v>984</v>
+      </c>
+      <c r="E130" t="n">
+        <v>988</v>
+      </c>
+      <c r="F130" t="n">
+        <v>28068</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>23</v>
+      </c>
+      <c r="J130" t="n">
+        <v>11</v>
+      </c>
+      <c r="K130" t="n">
+        <v>15</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45680.51041666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>988</v>
+      </c>
+      <c r="C131" t="n">
+        <v>991.5999755859375</v>
+      </c>
+      <c r="D131" t="n">
+        <v>985</v>
+      </c>
+      <c r="E131" t="n">
+        <v>986.1500244140625</v>
+      </c>
+      <c r="F131" t="n">
+        <v>26473</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>23</v>
+      </c>
+      <c r="J131" t="n">
+        <v>12</v>
+      </c>
+      <c r="K131" t="n">
+        <v>15</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>4</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45680.55208333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>986.2000122070312</v>
+      </c>
+      <c r="C132" t="n">
+        <v>988.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>984</v>
+      </c>
+      <c r="E132" t="n">
+        <v>985.6500244140625</v>
+      </c>
+      <c r="F132" t="n">
+        <v>15984</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>23</v>
+      </c>
+      <c r="J132" t="n">
+        <v>13</v>
+      </c>
+      <c r="K132" t="n">
+        <v>15</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>4</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45680.59375</v>
+      </c>
+      <c r="B133" t="n">
+        <v>985.6500244140625</v>
+      </c>
+      <c r="C133" t="n">
+        <v>987.0499877929688</v>
+      </c>
+      <c r="D133" t="n">
+        <v>960</v>
+      </c>
+      <c r="E133" t="n">
+        <v>966.75</v>
+      </c>
+      <c r="F133" t="n">
+        <v>72316</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>23</v>
+      </c>
+      <c r="J133" t="n">
+        <v>14</v>
+      </c>
+      <c r="K133" t="n">
+        <v>15</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>4</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45680.63541666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>966.6500244140625</v>
+      </c>
+      <c r="C134" t="n">
+        <v>979.9000244140625</v>
+      </c>
+      <c r="D134" t="n">
+        <v>960</v>
+      </c>
+      <c r="E134" t="n">
+        <v>968.25</v>
+      </c>
+      <c r="F134" t="n">
+        <v>35845</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>23</v>
+      </c>
+      <c r="J134" t="n">
+        <v>15</v>
+      </c>
+      <c r="K134" t="n">
+        <v>15</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>996.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>963</v>
+      </c>
+      <c r="E135" t="n">
+        <v>965.7999877929688</v>
+      </c>
+      <c r="F135" t="n">
+        <v>73482</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>24</v>
+      </c>
+      <c r="J135" t="n">
+        <v>9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>15</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>4</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="C136" t="n">
+        <v>965.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>949.8499755859375</v>
+      </c>
+      <c r="E136" t="n">
+        <v>958</v>
+      </c>
+      <c r="F136" t="n">
+        <v>49627</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>24</v>
+      </c>
+      <c r="J136" t="n">
+        <v>10</v>
+      </c>
+      <c r="K136" t="n">
+        <v>15</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B137" t="n">
+        <v>957.9000244140625</v>
+      </c>
+      <c r="C137" t="n">
+        <v>958</v>
+      </c>
+      <c r="D137" t="n">
+        <v>951.0499877929688</v>
+      </c>
+      <c r="E137" t="n">
+        <v>955.8499755859375</v>
+      </c>
+      <c r="F137" t="n">
+        <v>34061</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>24</v>
+      </c>
+      <c r="J137" t="n">
+        <v>11</v>
+      </c>
+      <c r="K137" t="n">
+        <v>15</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>4</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>955.8499755859375</v>
+      </c>
+      <c r="C138" t="n">
+        <v>956.0499877929688</v>
+      </c>
+      <c r="D138" t="n">
+        <v>942</v>
+      </c>
+      <c r="E138" t="n">
+        <v>948.4500122070312</v>
+      </c>
+      <c r="F138" t="n">
+        <v>49104</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>24</v>
+      </c>
+      <c r="J138" t="n">
+        <v>12</v>
+      </c>
+      <c r="K138" t="n">
+        <v>15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>4</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>947.6500244140625</v>
+      </c>
+      <c r="C139" t="n">
+        <v>950</v>
+      </c>
+      <c r="D139" t="n">
+        <v>942</v>
+      </c>
+      <c r="E139" t="n">
+        <v>944</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28725</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>24</v>
+      </c>
+      <c r="J139" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" t="n">
+        <v>15</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B140" t="n">
+        <v>943.7000122070312</v>
+      </c>
+      <c r="C140" t="n">
+        <v>945</v>
+      </c>
+      <c r="D140" t="n">
+        <v>905</v>
+      </c>
+      <c r="E140" t="n">
+        <v>937</v>
+      </c>
+      <c r="F140" t="n">
+        <v>118504</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>24</v>
+      </c>
+      <c r="J140" t="n">
+        <v>14</v>
+      </c>
+      <c r="K140" t="n">
+        <v>15</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>4</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>937</v>
+      </c>
+      <c r="C141" t="n">
+        <v>937.9500122070312</v>
+      </c>
+      <c r="D141" t="n">
+        <v>930.5499877929688</v>
+      </c>
+      <c r="E141" t="n">
+        <v>934</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24825</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>24</v>
+      </c>
+      <c r="J141" t="n">
+        <v>15</v>
+      </c>
+      <c r="K141" t="n">
+        <v>15</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>4</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7251,7 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
-      <c r="Q128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7302,7 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7353,7 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
-      <c r="Q130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7404,7 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7455,7 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7506,7 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7557,7 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7608,7 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7659,7 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7710,7 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7761,7 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7812,7 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7863,7 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7914,7 +7940,366 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B142" t="n">
+        <v>924</v>
+      </c>
+      <c r="C142" t="n">
+        <v>924</v>
+      </c>
+      <c r="D142" t="n">
+        <v>841.5</v>
+      </c>
+      <c r="E142" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="F142" t="n">
+        <v>214489</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>27</v>
+      </c>
+      <c r="J142" t="n">
+        <v>9</v>
+      </c>
+      <c r="K142" t="n">
+        <v>15</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>5</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>889.5499877929688</v>
+      </c>
+      <c r="C143" t="n">
+        <v>893.3499755859375</v>
+      </c>
+      <c r="D143" t="n">
+        <v>878</v>
+      </c>
+      <c r="E143" t="n">
+        <v>890</v>
+      </c>
+      <c r="F143" t="n">
+        <v>72800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>27</v>
+      </c>
+      <c r="J143" t="n">
+        <v>10</v>
+      </c>
+      <c r="K143" t="n">
+        <v>15</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B144" t="n">
+        <v>890.4000244140625</v>
+      </c>
+      <c r="C144" t="n">
+        <v>919.9500122070312</v>
+      </c>
+      <c r="D144" t="n">
+        <v>888.9000244140625</v>
+      </c>
+      <c r="E144" t="n">
+        <v>905.0499877929688</v>
+      </c>
+      <c r="F144" t="n">
+        <v>80900</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>27</v>
+      </c>
+      <c r="J144" t="n">
+        <v>11</v>
+      </c>
+      <c r="K144" t="n">
+        <v>15</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>5</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45684.51041666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>905.9500122070312</v>
+      </c>
+      <c r="C145" t="n">
+        <v>906.9500122070312</v>
+      </c>
+      <c r="D145" t="n">
+        <v>892.5499877929688</v>
+      </c>
+      <c r="E145" t="n">
+        <v>900.4500122070312</v>
+      </c>
+      <c r="F145" t="n">
+        <v>21256</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>27</v>
+      </c>
+      <c r="J145" t="n">
+        <v>12</v>
+      </c>
+      <c r="K145" t="n">
+        <v>15</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>5</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>886</v>
+      </c>
+      <c r="E146" t="n">
+        <v>895.7000122070312</v>
+      </c>
+      <c r="F146" t="n">
+        <v>28261</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>27</v>
+      </c>
+      <c r="J146" t="n">
+        <v>13</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>5</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B147" t="n">
+        <v>893.0999755859375</v>
+      </c>
+      <c r="C147" t="n">
+        <v>909</v>
+      </c>
+      <c r="D147" t="n">
+        <v>888</v>
+      </c>
+      <c r="E147" t="n">
+        <v>894</v>
+      </c>
+      <c r="F147" t="n">
+        <v>34574</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>27</v>
+      </c>
+      <c r="J147" t="n">
+        <v>14</v>
+      </c>
+      <c r="K147" t="n">
+        <v>15</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>5</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>894</v>
+      </c>
+      <c r="C148" t="n">
+        <v>894.7000122070312</v>
+      </c>
+      <c r="D148" t="n">
+        <v>876.9000244140625</v>
+      </c>
+      <c r="E148" t="n">
+        <v>887.7000122070312</v>
+      </c>
+      <c r="F148" t="n">
+        <v>38791</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>27</v>
+      </c>
+      <c r="J148" t="n">
+        <v>15</v>
+      </c>
+      <c r="K148" t="n">
+        <v>15</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>5</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:Q162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7993,7 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8044,7 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8095,7 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8146,7 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8197,7 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
-      <c r="Q146" t="inlineStr"/>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8248,7 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
-      <c r="Q147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8299,7 +8311,723 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
-      <c r="Q148" t="inlineStr"/>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45685.38541666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>903.9000244140625</v>
+      </c>
+      <c r="C149" t="n">
+        <v>920</v>
+      </c>
+      <c r="D149" t="n">
+        <v>840</v>
+      </c>
+      <c r="E149" t="n">
+        <v>858.9500122070312</v>
+      </c>
+      <c r="F149" t="n">
+        <v>128851</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>28</v>
+      </c>
+      <c r="J149" t="n">
+        <v>9</v>
+      </c>
+      <c r="K149" t="n">
+        <v>15</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>5</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45685.42708333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>858.9500122070312</v>
+      </c>
+      <c r="C150" t="n">
+        <v>875</v>
+      </c>
+      <c r="D150" t="n">
+        <v>830.6500244140625</v>
+      </c>
+      <c r="E150" t="n">
+        <v>861.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>111298</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28</v>
+      </c>
+      <c r="J150" t="n">
+        <v>10</v>
+      </c>
+      <c r="K150" t="n">
+        <v>15</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>5</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B151" t="n">
+        <v>861.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>910</v>
+      </c>
+      <c r="D151" t="n">
+        <v>855.0499877929688</v>
+      </c>
+      <c r="E151" t="n">
+        <v>890</v>
+      </c>
+      <c r="F151" t="n">
+        <v>72604</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>28</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11</v>
+      </c>
+      <c r="K151" t="n">
+        <v>15</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B152" t="n">
+        <v>890</v>
+      </c>
+      <c r="C152" t="n">
+        <v>910</v>
+      </c>
+      <c r="D152" t="n">
+        <v>885</v>
+      </c>
+      <c r="E152" t="n">
+        <v>909.7999877929688</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44704</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28</v>
+      </c>
+      <c r="J152" t="n">
+        <v>12</v>
+      </c>
+      <c r="K152" t="n">
+        <v>15</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>910</v>
+      </c>
+      <c r="C153" t="n">
+        <v>924.9000244140625</v>
+      </c>
+      <c r="D153" t="n">
+        <v>905.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>922.0999755859375</v>
+      </c>
+      <c r="F153" t="n">
+        <v>59681</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>28</v>
+      </c>
+      <c r="J153" t="n">
+        <v>13</v>
+      </c>
+      <c r="K153" t="n">
+        <v>15</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>5</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B154" t="n">
+        <v>922.0999755859375</v>
+      </c>
+      <c r="C154" t="n">
+        <v>922.8499755859375</v>
+      </c>
+      <c r="D154" t="n">
+        <v>891.5499877929688</v>
+      </c>
+      <c r="E154" t="n">
+        <v>899.3499755859375</v>
+      </c>
+      <c r="F154" t="n">
+        <v>48538</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28</v>
+      </c>
+      <c r="J154" t="n">
+        <v>14</v>
+      </c>
+      <c r="K154" t="n">
+        <v>15</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>5</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>899.3499755859375</v>
+      </c>
+      <c r="C155" t="n">
+        <v>902.9500122070312</v>
+      </c>
+      <c r="D155" t="n">
+        <v>891.5499877929688</v>
+      </c>
+      <c r="E155" t="n">
+        <v>899</v>
+      </c>
+      <c r="F155" t="n">
+        <v>22263</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28</v>
+      </c>
+      <c r="J155" t="n">
+        <v>15</v>
+      </c>
+      <c r="K155" t="n">
+        <v>15</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>5</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>914.8499755859375</v>
+      </c>
+      <c r="C156" t="n">
+        <v>983.9500122070312</v>
+      </c>
+      <c r="D156" t="n">
+        <v>899</v>
+      </c>
+      <c r="E156" t="n">
+        <v>965.9500122070312</v>
+      </c>
+      <c r="F156" t="n">
+        <v>159826</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29</v>
+      </c>
+      <c r="J156" t="n">
+        <v>9</v>
+      </c>
+      <c r="K156" t="n">
+        <v>15</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>964</v>
+      </c>
+      <c r="C157" t="n">
+        <v>978.7999877929688</v>
+      </c>
+      <c r="D157" t="n">
+        <v>954</v>
+      </c>
+      <c r="E157" t="n">
+        <v>967</v>
+      </c>
+      <c r="F157" t="n">
+        <v>57608</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29</v>
+      </c>
+      <c r="J157" t="n">
+        <v>10</v>
+      </c>
+      <c r="K157" t="n">
+        <v>15</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>5</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B158" t="n">
+        <v>967</v>
+      </c>
+      <c r="C158" t="n">
+        <v>989.4000244140625</v>
+      </c>
+      <c r="D158" t="n">
+        <v>966</v>
+      </c>
+      <c r="E158" t="n">
+        <v>982.9000244140625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>65349</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>29</v>
+      </c>
+      <c r="J158" t="n">
+        <v>11</v>
+      </c>
+      <c r="K158" t="n">
+        <v>15</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>981.2999877929688</v>
+      </c>
+      <c r="C159" t="n">
+        <v>986</v>
+      </c>
+      <c r="D159" t="n">
+        <v>973.2999877929688</v>
+      </c>
+      <c r="E159" t="n">
+        <v>979.9500122070312</v>
+      </c>
+      <c r="F159" t="n">
+        <v>30090</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29</v>
+      </c>
+      <c r="J159" t="n">
+        <v>12</v>
+      </c>
+      <c r="K159" t="n">
+        <v>15</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>980</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1040.25</v>
+      </c>
+      <c r="D160" t="n">
+        <v>977.0499877929688</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1023.900024414062</v>
+      </c>
+      <c r="F160" t="n">
+        <v>179856</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>29</v>
+      </c>
+      <c r="J160" t="n">
+        <v>13</v>
+      </c>
+      <c r="K160" t="n">
+        <v>15</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>5</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1023.049987792969</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1024.800048828125</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="F161" t="n">
+        <v>62037</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29</v>
+      </c>
+      <c r="J161" t="n">
+        <v>14</v>
+      </c>
+      <c r="K161" t="n">
+        <v>15</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45686.63541666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1003.700012207031</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1002</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1014.799987792969</v>
+      </c>
+      <c r="F162" t="n">
+        <v>52845</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29</v>
+      </c>
+      <c r="J162" t="n">
+        <v>15</v>
+      </c>
+      <c r="K162" t="n">
+        <v>15</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>5</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8364,7 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
-      <c r="Q149" t="inlineStr"/>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8415,7 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
-      <c r="Q150" t="inlineStr"/>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8466,7 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="inlineStr"/>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8517,7 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
-      <c r="Q152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8568,7 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
-      <c r="Q153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8619,7 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
-      <c r="Q154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8670,7 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
-      <c r="Q155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8721,7 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
-      <c r="Q156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8772,7 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="inlineStr"/>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8823,7 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
-      <c r="Q158" t="inlineStr"/>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8874,7 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="Q159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8925,7 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8976,7 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
-      <c r="Q161" t="inlineStr"/>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9027,7 +9053,723 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="inlineStr"/>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1037.949951171875</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D163" t="n">
+        <v>991.0999755859375</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="F163" t="n">
+        <v>121394</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>30</v>
+      </c>
+      <c r="J163" t="n">
+        <v>9</v>
+      </c>
+      <c r="K163" t="n">
+        <v>15</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>5</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1021.049987792969</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1038.650024414062</v>
+      </c>
+      <c r="D164" t="n">
+        <v>995</v>
+      </c>
+      <c r="E164" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="F164" t="n">
+        <v>74571</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>30</v>
+      </c>
+      <c r="J164" t="n">
+        <v>10</v>
+      </c>
+      <c r="K164" t="n">
+        <v>15</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>5</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B165" t="n">
+        <v>999.4000244140625</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1009</v>
+      </c>
+      <c r="D165" t="n">
+        <v>996</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>51456</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>30</v>
+      </c>
+      <c r="J165" t="n">
+        <v>11</v>
+      </c>
+      <c r="K165" t="n">
+        <v>15</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>5</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45687.51041666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D166" t="n">
+        <v>996</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1001.75</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12199</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>30</v>
+      </c>
+      <c r="J166" t="n">
+        <v>12</v>
+      </c>
+      <c r="K166" t="n">
+        <v>15</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>5</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1001.75</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1004.450012207031</v>
+      </c>
+      <c r="D167" t="n">
+        <v>987</v>
+      </c>
+      <c r="E167" t="n">
+        <v>991</v>
+      </c>
+      <c r="F167" t="n">
+        <v>28045</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>30</v>
+      </c>
+      <c r="J167" t="n">
+        <v>13</v>
+      </c>
+      <c r="K167" t="n">
+        <v>15</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>5</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B168" t="n">
+        <v>993.7000122070312</v>
+      </c>
+      <c r="C168" t="n">
+        <v>994.9500122070312</v>
+      </c>
+      <c r="D168" t="n">
+        <v>981.9500122070312</v>
+      </c>
+      <c r="E168" t="n">
+        <v>989.8499755859375</v>
+      </c>
+      <c r="F168" t="n">
+        <v>32905</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>30</v>
+      </c>
+      <c r="J168" t="n">
+        <v>14</v>
+      </c>
+      <c r="K168" t="n">
+        <v>15</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>5</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>989.8499755859375</v>
+      </c>
+      <c r="C169" t="n">
+        <v>994</v>
+      </c>
+      <c r="D169" t="n">
+        <v>987.0499877929688</v>
+      </c>
+      <c r="E169" t="n">
+        <v>993.2999877929688</v>
+      </c>
+      <c r="F169" t="n">
+        <v>15471</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>30</v>
+      </c>
+      <c r="J169" t="n">
+        <v>15</v>
+      </c>
+      <c r="K169" t="n">
+        <v>15</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>5</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1038.400024414062</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1008</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1013.200012207031</v>
+      </c>
+      <c r="F170" t="n">
+        <v>105345</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>31</v>
+      </c>
+      <c r="J170" t="n">
+        <v>9</v>
+      </c>
+      <c r="K170" t="n">
+        <v>15</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>5</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1013.25</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1023.299987792969</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1003.200012207031</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1018.25</v>
+      </c>
+      <c r="F171" t="n">
+        <v>34392</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>31</v>
+      </c>
+      <c r="J171" t="n">
+        <v>10</v>
+      </c>
+      <c r="K171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>5</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1029</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F172" t="n">
+        <v>32812</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>31</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>5</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45688.51041666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1025.949951171875</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1026</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1021.450012207031</v>
+      </c>
+      <c r="F173" t="n">
+        <v>19335</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>31</v>
+      </c>
+      <c r="J173" t="n">
+        <v>12</v>
+      </c>
+      <c r="K173" t="n">
+        <v>15</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>5</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45688.55208333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1021.349975585938</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1024.800048828125</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1012.650024414062</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F174" t="n">
+        <v>66829</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>31</v>
+      </c>
+      <c r="J174" t="n">
+        <v>13</v>
+      </c>
+      <c r="K174" t="n">
+        <v>15</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>5</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>2</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1014</v>
+      </c>
+      <c r="F175" t="n">
+        <v>32550</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>31</v>
+      </c>
+      <c r="J175" t="n">
+        <v>14</v>
+      </c>
+      <c r="K175" t="n">
+        <v>15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>5</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1014.950012207031</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1014.450012207031</v>
+      </c>
+      <c r="F176" t="n">
+        <v>20313</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>31</v>
+      </c>
+      <c r="J176" t="n">
+        <v>15</v>
+      </c>
+      <c r="K176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>5</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1730"/>
+  <dimension ref="A1:Q1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79701,6 +79701,951 @@
       <c r="P1730" t="inlineStr"/>
       <c r="Q1730" t="inlineStr"/>
     </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>981.6500244140625</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>990</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>975</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>984.0999755859375</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>54198</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1731" t="inlineStr"/>
+      <c r="O1731" t="inlineStr"/>
+      <c r="P1731" t="inlineStr"/>
+      <c r="Q1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>985.4000244140625</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>986</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>983.1500244140625</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>984.9000244140625</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>12638</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1732" t="inlineStr"/>
+      <c r="O1732" t="inlineStr"/>
+      <c r="P1732" t="inlineStr"/>
+      <c r="Q1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45693.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>983.5499877929688</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>981.5499877929688</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>983.9000244140625</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>8635</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1733" t="inlineStr"/>
+      <c r="O1733" t="inlineStr"/>
+      <c r="P1733" t="inlineStr"/>
+      <c r="Q1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>983.9000244140625</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>984.4000244140625</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>980.0499877929688</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>982</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>11973</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1734" t="inlineStr"/>
+      <c r="O1734" t="inlineStr"/>
+      <c r="P1734" t="inlineStr"/>
+      <c r="Q1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>982.4500122070312</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>983.0499877929688</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>980</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>982.4000244140625</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>9744</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1735" t="inlineStr"/>
+      <c r="O1735" t="inlineStr"/>
+      <c r="P1735" t="inlineStr"/>
+      <c r="Q1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>982.4500122070312</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>982.7000122070312</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>973</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>973.0499877929688</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>24393</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1736" t="inlineStr"/>
+      <c r="O1736" t="inlineStr"/>
+      <c r="P1736" t="inlineStr"/>
+      <c r="Q1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45693.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>973.1500244140625</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>975.2000122070312</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>972</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>975.2000122070312</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>11981</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1737" t="inlineStr"/>
+      <c r="O1737" t="inlineStr"/>
+      <c r="P1737" t="inlineStr"/>
+      <c r="Q1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>982.5</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>985</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>962.4000244140625</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>969</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>29689</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1738" t="inlineStr"/>
+      <c r="O1738" t="inlineStr"/>
+      <c r="P1738" t="inlineStr"/>
+      <c r="Q1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45694.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>968.7999877929688</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>964</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>966.7999877929688</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>14472</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1739" t="inlineStr"/>
+      <c r="O1739" t="inlineStr"/>
+      <c r="P1739" t="inlineStr"/>
+      <c r="Q1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>966.0499877929688</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>966.6500244140625</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>963</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>965</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>8564</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1740" t="inlineStr"/>
+      <c r="O1740" t="inlineStr"/>
+      <c r="P1740" t="inlineStr"/>
+      <c r="Q1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>965</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>965.4500122070312</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>961.3499755859375</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>962</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>8607</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1741" t="inlineStr"/>
+      <c r="O1741" t="inlineStr"/>
+      <c r="P1741" t="inlineStr"/>
+      <c r="Q1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45694.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>962</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>963</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>961</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>962.8499755859375</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>67798</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1742" t="inlineStr"/>
+      <c r="O1742" t="inlineStr"/>
+      <c r="P1742" t="inlineStr"/>
+      <c r="Q1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>962.0999755859375</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>963</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>961.7999877929688</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>962.5</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>12386</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1743" t="inlineStr"/>
+      <c r="O1743" t="inlineStr"/>
+      <c r="P1743" t="inlineStr"/>
+      <c r="Q1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>962.5</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>963</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>962.2999877929688</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>962.6500244140625</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>8814</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1744" t="inlineStr"/>
+      <c r="O1744" t="inlineStr"/>
+      <c r="P1744" t="inlineStr"/>
+      <c r="Q1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>963</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>956</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>957.5</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>18807</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1745" t="inlineStr"/>
+      <c r="O1745" t="inlineStr"/>
+      <c r="P1745" t="inlineStr"/>
+      <c r="Q1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45695.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>959.3499755859375</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>959.3499755859375</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>938</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>954.5499877929688</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>29497</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1746" t="inlineStr"/>
+      <c r="O1746" t="inlineStr"/>
+      <c r="P1746" t="inlineStr"/>
+      <c r="Q1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>954.8499755859375</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>963</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>952.0499877929688</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>955</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>13336</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1747" t="inlineStr"/>
+      <c r="O1747" t="inlineStr"/>
+      <c r="P1747" t="inlineStr"/>
+      <c r="Q1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45695.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>955.0499877929688</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>957.3499755859375</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>19079</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1748" t="inlineStr"/>
+      <c r="O1748" t="inlineStr"/>
+      <c r="P1748" t="inlineStr"/>
+      <c r="Q1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>951.5</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>955</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>947.8499755859375</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>953</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>7915</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1749" t="inlineStr"/>
+      <c r="O1749" t="inlineStr"/>
+      <c r="P1749" t="inlineStr"/>
+      <c r="Q1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45695.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>953.9000244140625</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>966.4000244140625</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>953</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>958.0499877929688</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>31611</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1750" t="inlineStr"/>
+      <c r="O1750" t="inlineStr"/>
+      <c r="P1750" t="inlineStr"/>
+      <c r="Q1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>958.9500122070312</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>962.5</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>953</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>960.5499877929688</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>7904</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1751" t="inlineStr"/>
+      <c r="O1751" t="inlineStr"/>
+      <c r="P1751" t="inlineStr"/>
+      <c r="Q1751" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1751"/>
+  <dimension ref="A1:Q1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80646,6 +80646,636 @@
       <c r="P1751" t="inlineStr"/>
       <c r="Q1751" t="inlineStr"/>
     </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>970</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>970</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>943.0499877929688</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>943.3499755859375</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>23478</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1752" t="inlineStr"/>
+      <c r="O1752" t="inlineStr"/>
+      <c r="P1752" t="inlineStr"/>
+      <c r="Q1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>944</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>947</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>16287</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1753" t="inlineStr"/>
+      <c r="O1753" t="inlineStr"/>
+      <c r="P1753" t="inlineStr"/>
+      <c r="Q1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>941</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>937</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>939.9500122070312</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>12522</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1754" t="inlineStr"/>
+      <c r="O1754" t="inlineStr"/>
+      <c r="P1754" t="inlineStr"/>
+      <c r="Q1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>939</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>941</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>935</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>938.8499755859375</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>12845</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1755" t="inlineStr"/>
+      <c r="O1755" t="inlineStr"/>
+      <c r="P1755" t="inlineStr"/>
+      <c r="Q1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>938.8499755859375</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>938.8499755859375</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>935.2000122070312</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>937</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>5867</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1756" t="inlineStr"/>
+      <c r="O1756" t="inlineStr"/>
+      <c r="P1756" t="inlineStr"/>
+      <c r="Q1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>937.25</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>937.75</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>933</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>933.75</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>33439</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1757" t="inlineStr"/>
+      <c r="O1757" t="inlineStr"/>
+      <c r="P1757" t="inlineStr"/>
+      <c r="Q1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45698.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>933.9000244140625</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>937.8499755859375</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>930.0999755859375</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>934.25</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>13860</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1758" t="inlineStr"/>
+      <c r="O1758" t="inlineStr"/>
+      <c r="P1758" t="inlineStr"/>
+      <c r="Q1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45699.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>950.0499877929688</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>954</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>900</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>906.8499755859375</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>49029</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1759" t="inlineStr"/>
+      <c r="O1759" t="inlineStr"/>
+      <c r="P1759" t="inlineStr"/>
+      <c r="Q1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>907.1500244140625</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>918.0999755859375</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>900.0999755859375</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>906.9000244140625</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>25040</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1760" t="inlineStr"/>
+      <c r="O1760" t="inlineStr"/>
+      <c r="P1760" t="inlineStr"/>
+      <c r="Q1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>902</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>914.9000244140625</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>902</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>909</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>11330</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1761" t="inlineStr"/>
+      <c r="O1761" t="inlineStr"/>
+      <c r="P1761" t="inlineStr"/>
+      <c r="Q1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>910</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>910.0499877929688</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>900.0999755859375</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>900.5</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>12030</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1762" t="inlineStr"/>
+      <c r="O1762" t="inlineStr"/>
+      <c r="P1762" t="inlineStr"/>
+      <c r="Q1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>900.0999755859375</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>904.7000122070312</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>898</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>902</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>26945</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1763" t="inlineStr"/>
+      <c r="O1763" t="inlineStr"/>
+      <c r="P1763" t="inlineStr"/>
+      <c r="Q1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>902</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>910</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>899.9000244140625</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>906</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>30752</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1764" t="inlineStr"/>
+      <c r="O1764" t="inlineStr"/>
+      <c r="P1764" t="inlineStr"/>
+      <c r="Q1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>906</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>906</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>901</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>902</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>16471</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1765" t="inlineStr"/>
+      <c r="O1765" t="inlineStr"/>
+      <c r="P1765" t="inlineStr"/>
+      <c r="Q1765" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/WAAREERTL.BO.xlsx
+++ b/stock_historical_data/60m/WAAREERTL.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1765"/>
+  <dimension ref="A1:Q1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81276,6 +81276,636 @@
       <c r="P1765" t="inlineStr"/>
       <c r="Q1765" t="inlineStr"/>
     </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>900</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>900</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>840</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>850.3499755859375</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>97691</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1766" t="inlineStr"/>
+      <c r="O1766" t="inlineStr"/>
+      <c r="P1766" t="inlineStr"/>
+      <c r="Q1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>851.2000122070312</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>883.4000244140625</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>848</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>877.9000244140625</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>62621</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1767" t="inlineStr"/>
+      <c r="O1767" t="inlineStr"/>
+      <c r="P1767" t="inlineStr"/>
+      <c r="Q1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>877.5</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>891</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>874.25</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>884</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>28009</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1768" t="inlineStr"/>
+      <c r="O1768" t="inlineStr"/>
+      <c r="P1768" t="inlineStr"/>
+      <c r="Q1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45700.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>884</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>889.9000244140625</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>866.0999755859375</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>887.9500122070312</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>46528</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1769" t="inlineStr"/>
+      <c r="O1769" t="inlineStr"/>
+      <c r="P1769" t="inlineStr"/>
+      <c r="Q1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>888.0999755859375</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>891</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>866.0999755859375</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>23281</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1770" t="inlineStr"/>
+      <c r="O1770" t="inlineStr"/>
+      <c r="P1770" t="inlineStr"/>
+      <c r="Q1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45700.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>874.5</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>882</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>880.0499877929688</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>28429</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1771" t="inlineStr"/>
+      <c r="O1771" t="inlineStr"/>
+      <c r="P1771" t="inlineStr"/>
+      <c r="Q1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>881</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>881.9500122070312</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>870.2000122070312</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>878.0999755859375</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>14431</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1772" t="inlineStr"/>
+      <c r="O1772" t="inlineStr"/>
+      <c r="P1772" t="inlineStr"/>
+      <c r="Q1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>893.7000122070312</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>912</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>875.7999877929688</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>904.4000244140625</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>52658</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1773" t="inlineStr"/>
+      <c r="O1773" t="inlineStr"/>
+      <c r="P1773" t="inlineStr"/>
+      <c r="Q1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>904</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>909</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>903.5999755859375</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>909</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>16234</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1774" t="inlineStr"/>
+      <c r="O1774" t="inlineStr"/>
+      <c r="P1774" t="inlineStr"/>
+      <c r="Q1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>908.4500122070312</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>911</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>903</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>904.5</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>15655</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1775" t="inlineStr"/>
+      <c r="O1775" t="inlineStr"/>
+      <c r="P1775" t="inlineStr"/>
+      <c r="Q1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>904.9500122070312</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>904.9500122070312</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>893.3499755859375</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>896.9000244140625</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>16545</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1776" t="inlineStr"/>
+      <c r="O1776" t="inlineStr"/>
+      <c r="P1776" t="inlineStr"/>
+      <c r="Q1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45701.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>897.2999877929688</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>897.2999877929688</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>878</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>886.9000244140625</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>28214</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1777" t="inlineStr"/>
+      <c r="O1777" t="inlineStr"/>
+      <c r="P1777" t="inlineStr"/>
+      <c r="Q1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>885.4500122070312</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>890</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>873</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>876.9500122070312</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>28243</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1778" t="inlineStr"/>
+      <c r="O1778" t="inlineStr"/>
+      <c r="P1778" t="inlineStr"/>
+      <c r="Q1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>876.9000244140625</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>880</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>870</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>876</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>12821</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1779" t="inlineStr"/>
+      <c r="O1779" t="inlineStr"/>
+      <c r="P1779" t="inlineStr"/>
+      <c r="Q1779" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
